--- a/data/trans_camb/P40_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P40_R-Provincia-trans_camb.xlsx
@@ -646,7 +646,7 @@
         <v>-8.321841259535478</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>-8.307882256113198</v>
+        <v>-8.307882256113185</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>-18.78816642928489</v>
@@ -664,7 +664,7 @@
         <v>-10.74382846752778</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-10.25642664947203</v>
+        <v>-10.25642664947204</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.1463477250377</v>
+        <v>-12.97267143092828</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-15.51777122267961</v>
+        <v>-15.42175783525359</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.43879780170388</v>
+        <v>-14.97008083456</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-25.90682450829049</v>
+        <v>-26.53477842582446</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-20.50869886734392</v>
+        <v>-20.41326830485805</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-18.833366160071</v>
+        <v>-19.06857334855093</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-17.30058577184729</v>
+        <v>-17.42311996217217</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-15.82065093340549</v>
+        <v>-15.68896498518794</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-14.75643777064376</v>
+        <v>-15.11212064980506</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.529518889603575</v>
+        <v>1.038552430249649</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.8626397951574555</v>
+        <v>-1.77387315402022</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>-1.483325343219525</v>
+        <v>-1.998334099360854</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-11.09743058540569</v>
+        <v>-10.38506846268102</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-5.279256423313134</v>
+        <v>-5.164000582947175</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>-5.521418671875314</v>
+        <v>-4.979786916353184</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>-7.030802623847046</v>
+        <v>-6.641204096104124</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>-5.38294940546862</v>
+        <v>-5.485546334658829</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>-5.481336669661649</v>
+        <v>-5.987943883163769</v>
       </c>
     </row>
     <row r="7">
@@ -751,7 +751,7 @@
         <v>-0.09975330954160569</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>-0.09958598397676394</v>
+        <v>-0.0995859839767638</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>-0.2371545179491293</v>
@@ -769,7 +769,7 @@
         <v>-0.1320340448060882</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.1260442215621445</v>
+        <v>-0.1260442215621446</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.141494896506433</v>
+        <v>-0.1505999919794085</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1819818340508082</v>
+        <v>-0.1783713252456996</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.168880943546889</v>
+        <v>-0.1775988249910654</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3220607555673212</v>
+        <v>-0.3254043814431197</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2483006550276303</v>
+        <v>-0.2476712528806614</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2280721875391876</v>
+        <v>-0.2266997590401215</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.208123743120889</v>
+        <v>-0.2105488023258263</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.1900380617660094</v>
+        <v>-0.1889888737443691</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.1767342989414583</v>
+        <v>-0.1804510068607816</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.01872028491445641</v>
+        <v>0.01311079593640573</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.01247911563795385</v>
+        <v>-0.02190749191996004</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>-0.01831903523861669</v>
+        <v>-0.02644126485465775</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>-0.1467355047519491</v>
+        <v>-0.137690689273956</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.06880949298961139</v>
+        <v>-0.06832760057319942</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>-0.07328901583672807</v>
+        <v>-0.06532968568147249</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>-0.08895523919668111</v>
+        <v>-0.08511224311083274</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>-0.06898536598771877</v>
+        <v>-0.07018857607934827</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>-0.07094872337866424</v>
+        <v>-0.07470674878253036</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>3.463160854956648</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>-0.905880829612038</v>
+        <v>-0.9058808296120491</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>-1.623174312072218</v>
@@ -869,7 +869,7 @@
         <v>5.881297475197766</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>6.467378889966168</v>
+        <v>6.467378889966158</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>-1.300171698234809</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-5.709328863388148</v>
+        <v>-6.126712525561203</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.280676818850829</v>
+        <v>-0.5566907279316878</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-5.732929223607357</v>
+        <v>-5.692634783487152</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-7.403613459807647</v>
+        <v>-6.929805503256596</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.6245637022885209</v>
+        <v>0.9460365999310888</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.814994763576642</v>
+        <v>1.483807604397922</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-5.250481517809842</v>
+        <v>-5.191050097708542</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.053084461147006</v>
+        <v>1.008731398984687</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.6747717919461241</v>
+        <v>-0.6065143521471295</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.81051214156793</v>
+        <v>3.57917774489793</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>8.33805415632243</v>
+        <v>8.043305334488585</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.357993490244505</v>
+        <v>3.71205946050364</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.592484828372405</v>
+        <v>4.00340843815759</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>11.38531473880288</v>
+        <v>11.68864099510754</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>11.419739561512</v>
+        <v>11.24914637141973</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.662000340540683</v>
+        <v>2.181680499014281</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>8.245049255146364</v>
+        <v>8.328600149151518</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.535190194155102</v>
+        <v>6.363955683449833</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.04079576375590459</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>-0.01067120525544234</v>
+        <v>-0.01067120525544247</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>-0.02271796763233587</v>
@@ -974,7 +974,7 @@
         <v>0.08231471178662725</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09051751447491288</v>
+        <v>0.09051751447491273</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>-0.01664832068080055</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.0649335681962999</v>
+        <v>-0.0715222623595994</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.01486504219419115</v>
+        <v>-0.006526215574722419</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.06580802579701321</v>
+        <v>-0.06526687305394586</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1011782949319557</v>
+        <v>-0.09390086240390295</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.007393858514535614</v>
+        <v>0.01279460322224553</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0247760270867783</v>
+        <v>0.0192097215659441</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.06557165168240187</v>
+        <v>-0.06537260930747604</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.01333297719431122</v>
+        <v>0.01263087172236321</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.008114870952023737</v>
+        <v>-0.007614162029722656</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.04632435898895609</v>
+        <v>0.04277400057383642</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.1006321726278996</v>
+        <v>0.09649864979032907</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.05227665994083772</v>
+        <v>0.04501843094960312</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.05200592863902555</v>
+        <v>0.05881420132425264</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.1662880490518685</v>
+        <v>0.171166473023324</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1692116896180072</v>
+        <v>0.1649241504080516</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03483137499140149</v>
+        <v>0.02839619527546058</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1096718180283009</v>
+        <v>0.1101095683246274</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.08638204476373067</v>
+        <v>0.0834966008041724</v>
       </c>
     </row>
     <row r="16">
@@ -1092,7 +1092,7 @@
         <v>4.320037576940294</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>-3.162760947865906</v>
+        <v>-3.162760947865917</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-7.833582135205456</v>
+        <v>-7.627093555994661</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.32306755536404</v>
+        <v>-6.649972515444167</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-13.49391939177866</v>
+        <v>-13.32038656913009</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.069351550146066</v>
+        <v>-3.128247111511162</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.697841394560052</v>
+        <v>2.498017907841754</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-4.618206040388722</v>
+        <v>-5.068090980022443</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-3.99481869379685</v>
+        <v>-3.287006952331036</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-0.1547982224284016</v>
+        <v>0.01455227359298533</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-7.231956951410508</v>
+        <v>-7.69235934427059</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.002173065412829</v>
+        <v>4.274492442329239</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.129285324620833</v>
+        <v>4.838599586681814</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-1.849708686347264</v>
+        <v>-1.126424047600807</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>10.70855268610372</v>
+        <v>10.57555930648105</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>16.26528896698962</v>
+        <v>15.63509355673192</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.177308622179828</v>
+        <v>6.964505009143028</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>5.593083759328179</v>
+        <v>5.566974056399921</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>9.282595490906115</v>
+        <v>8.780920489712264</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.406414214671874</v>
+        <v>1.389307793565158</v>
       </c>
     </row>
     <row r="19">
@@ -1197,7 +1197,7 @@
         <v>0.05611712179550022</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>-0.04108414294098528</v>
+        <v>-0.04108414294098543</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.09059038042869574</v>
+        <v>-0.08872145510919853</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.07358916770199742</v>
+        <v>-0.07736012800165448</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.1544010667447535</v>
+        <v>-0.1525018952223749</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.04167158761124402</v>
+        <v>-0.03801931040446564</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.03538509683139436</v>
+        <v>0.03435019038839549</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.06327793522057068</v>
+        <v>-0.06846805533652724</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.05046772906569914</v>
+        <v>-0.0418291958024462</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.001724456342416353</v>
+        <v>0.0001709467470749499</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.09131217696801573</v>
+        <v>-0.09580761320896385</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.04968350298456238</v>
+        <v>0.05278252256606166</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.06307943163463139</v>
+        <v>0.06077730631047303</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.0233131798613339</v>
+        <v>-0.01408307265134434</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.1622685035458029</v>
+        <v>0.1587632055932273</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2425696095019559</v>
+        <v>0.2361850117026595</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1086477689014771</v>
+        <v>0.1039908893345639</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.07488761598342332</v>
+        <v>0.07532357116957289</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.125465744420168</v>
+        <v>0.1191254850501577</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.01908607134693966</v>
+        <v>0.01867620641774669</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>-5.271106039948348</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-6.954136804108502</v>
+        <v>-6.954136804108524</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-6.846272367990869</v>
@@ -1306,7 +1306,7 @@
         <v>-5.434571438863389</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>-4.656136527373866</v>
+        <v>-4.656136527373878</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.72215650812177</v>
+        <v>-11.31230906913838</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-10.51711401892288</v>
+        <v>-10.64804887006178</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-12.64787738375003</v>
+        <v>-13.21867829150759</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-12.94125086645861</v>
+        <v>-13.75550494857269</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-12.47356489385057</v>
+        <v>-12.49295041319153</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-7.515494120766951</v>
+        <v>-7.852969664581064</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-10.53358496553926</v>
+        <v>-10.41577631631765</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-9.917672064699335</v>
+        <v>-9.762078193913288</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-9.130305918406444</v>
+        <v>-9.043888951216216</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1092859640258493</v>
+        <v>0.1431829490946918</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1660104243476794</v>
+        <v>0.001525546813586841</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>-1.369471237619145</v>
+        <v>-1.49413099354767</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2422999805144162</v>
+        <v>-0.01474152971614134</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.053039091406458</v>
+        <v>1.132106460822794</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.30145935753939</v>
+        <v>3.911444940847284</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>-2.006189358142754</v>
+        <v>-1.937081894332783</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-1.294431177661537</v>
+        <v>-0.8185045424413032</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>-0.6730168525555043</v>
+        <v>-0.2150517289261488</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>-0.06049876943172238</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.07981564322931695</v>
+        <v>-0.0798156432293172</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.09353546198525607</v>
@@ -1411,7 +1411,7 @@
         <v>-0.06790731848101</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>-0.05818043788961023</v>
+        <v>-0.05818043788961037</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1208050387976998</v>
+        <v>-0.1283052386106136</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1173337508897554</v>
+        <v>-0.1196615657591323</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1441263232826111</v>
+        <v>-0.1484096639050493</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1702255311433921</v>
+        <v>-0.1815070001597411</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.1661495261513885</v>
+        <v>-0.1635100781727952</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1015255197278034</v>
+        <v>-0.1028943290338838</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1285360554992744</v>
+        <v>-0.1265840507668927</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1204911717813873</v>
+        <v>-0.1192477494530581</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.1110251449987112</v>
+        <v>-0.1106171105044632</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.002665278521229047</v>
+        <v>0.001621667939941424</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.0009065668969919601</v>
+        <v>2.43933729432916e-05</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>-0.0157801764044339</v>
+        <v>-0.01711909943904086</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.003841188649487183</v>
+        <v>-7.597952523751928e-05</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.01464665625803379</v>
+        <v>0.01692669384341385</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.06118632204256861</v>
+        <v>0.05610780656760445</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>-0.02578139368694006</v>
+        <v>-0.02483930966964274</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.01545151431152579</v>
+        <v>-0.01061456295015258</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>-0.009089914828147647</v>
+        <v>-0.002799096061071734</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>9.022548796778718</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>11.91329939445825</v>
+        <v>11.91329939445828</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>7.304522979877381</v>
@@ -1511,7 +1511,7 @@
         <v>11.47315791924997</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>17.08505495282979</v>
+        <v>17.08505495282978</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>6.953366781612768</v>
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-0.9061275928835563</v>
+        <v>-1.416664222855787</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>1.381201272902496</v>
+        <v>1.118775638165751</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4.548880202417978</v>
+        <v>5.219227166294446</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.785701448370673</v>
+        <v>-1.784342194461809</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>2.112760584086147</v>
+        <v>1.121897010492867</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>8.864244109431297</v>
+        <v>9.350620117766274</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.1586415960266312</v>
+        <v>0.8930684935270253</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>3.786906077239444</v>
+        <v>3.371244673692397</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>9.258848339993611</v>
+        <v>9.557619662839938</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.59898538412626</v>
+        <v>14.05393122545053</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>16.66460801674593</v>
+        <v>16.39649077783435</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>18.54101311137293</v>
+        <v>19.36232547745902</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>16.26593858048219</v>
+        <v>17.11847517390785</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>20.76601144122569</v>
+        <v>20.37724053457869</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>24.7829571445903</v>
+        <v>24.23163656079234</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>12.99512655080342</v>
+        <v>13.34360899219165</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>16.07280322912401</v>
+        <v>15.75725330852417</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>19.76130809460615</v>
+        <v>19.89167542438258</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.1199719793202829</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.1584100170340522</v>
+        <v>0.1584100170340525</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.119262031328201</v>
@@ -1616,7 +1616,7 @@
         <v>0.1873239529765921</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2789502291445494</v>
+        <v>0.2789502291445493</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.1020492063777553</v>
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.01162705045822882</v>
+        <v>-0.01743762829049559</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.01882406176797896</v>
+        <v>0.01512054872934349</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.05722376687311875</v>
+        <v>0.06556835863078428</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.03778495211429755</v>
+        <v>-0.02610252894863674</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.03199273399792021</v>
+        <v>0.01853056118821737</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1324242845114203</v>
+        <v>0.1384187475087282</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.002248655387406834</v>
+        <v>0.01223357695443634</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.05790749034319694</v>
+        <v>0.04632445022363728</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.1317924394476907</v>
+        <v>0.1341293220663207</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.2073827679269871</v>
+        <v>0.1970113897253757</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>0.2379007890700148</v>
+        <v>0.2315277426374778</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.2646868319272946</v>
+        <v>0.277408768058983</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>0.2956561626811494</v>
+        <v>0.3048325521380705</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.372432359135042</v>
+        <v>0.369363734037137</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.456327206576234</v>
+        <v>0.4366196842477982</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1984736880903461</v>
+        <v>0.2076344740602151</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.2512058825348903</v>
+        <v>0.2451912775300758</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>0.3140048192779302</v>
+        <v>0.3151451089848801</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-5.293416549595287</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>-7.753198708572251</v>
+        <v>-7.753198708572262</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>8.646603810763088</v>
@@ -1725,7 +1725,7 @@
         <v>6.691960714603217</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.818989468453713</v>
+        <v>1.818989468453691</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>2.28783080513173</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-10.61845936265384</v>
+        <v>-11.26570056644604</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-11.59245034277585</v>
+        <v>-12.09711499640206</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-13.17634379792999</v>
+        <v>-14.04519324328128</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.327574399095653</v>
+        <v>0.3485126016841031</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.496655931762396</v>
+        <v>-1.281328460830012</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-5.864437240206025</v>
+        <v>-5.468915330433196</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-2.318544757681425</v>
+        <v>-2.94711171729588</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-4.354175940686316</v>
+        <v>-4.411300871838877</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-7.483928062067985</v>
+        <v>-7.705188319710141</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>1.953769573066326</v>
+        <v>1.995914377323845</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.430221548175522</v>
+        <v>1.187879660243483</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>-1.075987442383906</v>
+        <v>-1.971591338927122</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>16.95438090247672</v>
+        <v>15.64582111482283</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>13.97038910029784</v>
+        <v>15.12648305757924</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>8.475176463170783</v>
+        <v>8.949280269014373</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>7.774018524517984</v>
+        <v>7.392240506740519</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>6.209828161389312</v>
+        <v>6.129609523545825</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.185964746124318</v>
+        <v>2.104631656586323</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.06184291680684648</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.0905805198266217</v>
+        <v>-0.09058051982662182</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.1335193557241312</v>
@@ -1830,7 +1830,7 @@
         <v>0.1033360961945316</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02808851974859777</v>
+        <v>0.02808851974859742</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.03048908360601338</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.122154251965141</v>
+        <v>-0.1257891988436981</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.1304889832787999</v>
+        <v>-0.1367783148631834</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.1509731286203917</v>
+        <v>-0.1582227851939666</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.01955922889893365</v>
+        <v>0.005081863010165505</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.02036575791612334</v>
+        <v>-0.01859509605510467</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.08532036732385345</v>
+        <v>-0.07939787987577371</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.02963855841144709</v>
+        <v>-0.03756066702875725</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.05590324024372968</v>
+        <v>-0.05627246762586204</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.09683528300638562</v>
+        <v>-0.09976589304443929</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>0.02233916959784923</v>
+        <v>0.02591216010277706</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.01508704515827475</v>
+        <v>0.01465913785067957</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>-0.013650275234844</v>
+        <v>-0.02345631015269362</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.2783317672938224</v>
+        <v>0.2576197042642915</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.2333669307111239</v>
+        <v>0.2452219665480319</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.1436477100242974</v>
+        <v>0.1499367827561992</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1087080769980735</v>
+        <v>0.103644433513165</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.08518931029853243</v>
+        <v>0.08353545166337137</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.03022351857027957</v>
+        <v>0.02935465522992497</v>
       </c>
     </row>
     <row r="40">
@@ -1948,7 +1948,7 @@
         <v>0.4727240220100959</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>-0.09822989287491257</v>
+        <v>-0.09822989287489037</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-6.103064655662185</v>
+        <v>-5.749628991006219</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.450823014458476</v>
+        <v>-5.539921311634055</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-5.763646831235488</v>
+        <v>-5.890380835634948</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-1.206564021023131</v>
+        <v>-1.062331544530077</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.746109715523873</v>
+        <v>-3.278295568991235</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-2.870870224529191</v>
+        <v>-2.783730950259951</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-1.927022954720128</v>
+        <v>-2.200521801204359</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-2.568580873123127</v>
+        <v>-2.598566041384475</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-3.469732597912714</v>
+        <v>-3.301828325004097</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.460444505156879</v>
+        <v>2.26095776441825</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>2.778061146983415</v>
+        <v>2.547792491724673</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2.302138492905319</v>
+        <v>2.263987429343258</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>9.107937046573147</v>
+        <v>8.677273204247106</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>7.289079787513283</v>
+        <v>6.747791582970097</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>6.438341477996053</v>
+        <v>6.243203800782808</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>4.268391489987144</v>
+        <v>4.554706576970859</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.908870891054557</v>
+        <v>4.007991192810573</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>2.855234921619711</v>
+        <v>2.979485618809123</v>
       </c>
     </row>
     <row r="43">
@@ -2053,7 +2053,7 @@
         <v>0.006017742989502441</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>-0.001250459510591481</v>
+        <v>-0.001250459510591198</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.06867786324641394</v>
+        <v>-0.06602816184457205</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.06204032853929767</v>
+        <v>-0.06354609233582004</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.06564856107003031</v>
+        <v>-0.06705512278800781</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.01533377647328911</v>
+        <v>-0.0136154749889826</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.03780056965417599</v>
+        <v>-0.04476843920288909</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.03912868757036875</v>
+        <v>-0.03772863152506396</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.02392838888800298</v>
+        <v>-0.02790064766191632</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03194649080968471</v>
+        <v>-0.03264503249442283</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.04321663273233565</v>
+        <v>-0.04128631832668993</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.02953308709471542</v>
+        <v>0.02710250158855894</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.03287916358493159</v>
+        <v>0.0303671136081637</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.02744242817372284</v>
+        <v>0.02715636570391341</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.1357126510775414</v>
+        <v>0.1267410746640744</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.1061933192929548</v>
+        <v>0.0969071500239313</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.09286127462168341</v>
+        <v>0.09085428798852817</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.05560367331258582</v>
+        <v>0.05857859141948038</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.05182870155146201</v>
+        <v>0.05235816981960712</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.03703980688905584</v>
+        <v>0.03898729904669394</v>
       </c>
     </row>
     <row r="46">
@@ -2162,7 +2162,7 @@
         <v>5.552573347606849</v>
       </c>
       <c r="K46" s="5" t="n">
-        <v>-1.400702934051334</v>
+        <v>-1.400702934051345</v>
       </c>
     </row>
     <row r="47">
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-1.201221792500859</v>
+        <v>-0.970992959264671</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>0.2418675892162417</v>
+        <v>0.3945164772647331</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-4.394917633635806</v>
+        <v>-4.574292128476911</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>2.871839036625531</v>
+        <v>3.331253110059083</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>2.537720641150703</v>
+        <v>2.290610166543628</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-6.286853293311456</v>
+        <v>-6.357215082106739</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>2.268588302205663</v>
+        <v>2.019599558034836</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>2.900131216275675</v>
+        <v>2.547642306078439</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>-4.116260244361684</v>
+        <v>-4.240112882673817</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>6.513918521380788</v>
+        <v>6.759595330381591</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>7.854929709492123</v>
+        <v>7.689621601891659</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>3.095072454615471</v>
+        <v>3.023121057707272</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>11.78702795070045</v>
+        <v>11.28224415678381</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>11.53605407137677</v>
+        <v>11.10680656367489</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>2.118124755151292</v>
+        <v>2.298929459794167</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>8.094768384722819</v>
+        <v>7.978816457806678</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>8.414624566253076</v>
+        <v>8.456728854385695</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>1.455438069031297</v>
+        <v>1.565553470949588</v>
       </c>
     </row>
     <row r="49">
@@ -2267,7 +2267,7 @@
         <v>0.07117560112758531</v>
       </c>
       <c r="K49" s="6" t="n">
-        <v>-0.01795489534149873</v>
+        <v>-0.01795489534149887</v>
       </c>
     </row>
     <row r="50">
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.01439712558888794</v>
+        <v>-0.01184587299878296</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>0.002930508653335431</v>
+        <v>0.0046606345321793</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.05263485610255802</v>
+        <v>-0.05427017785263282</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.03952101247332828</v>
+        <v>0.04269867525527889</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.03304637732753508</v>
+        <v>0.02991315178289372</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.08228818617945455</v>
+        <v>-0.08335015424602563</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02905104393532859</v>
+        <v>0.02528336964505304</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.03607162320490895</v>
+        <v>0.03187825427163549</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>-0.05213647535468333</v>
+        <v>-0.05304632005784762</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.08097655590712653</v>
+        <v>0.08372254579871301</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.09754901892312011</v>
+        <v>0.09615246694685668</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.038329833791188</v>
+        <v>0.03784999704466142</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.1655698471815757</v>
+        <v>0.156874067029381</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1613708950645408</v>
+        <v>0.154541035221443</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.02946087080491988</v>
+        <v>0.03170448755691525</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1053504009442262</v>
+        <v>0.1042972309190009</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.1097530962640624</v>
+        <v>0.1101770037601742</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.01894945451560563</v>
+        <v>0.02043243103633151</v>
       </c>
     </row>
     <row r="52">
@@ -2367,7 +2367,7 @@
         <v>3.374770950508776</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>0.9691990210782042</v>
+        <v>0.9691990210782264</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>0.2970207997099239</v>
@@ -2376,7 +2376,7 @@
         <v>1.693802260807242</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>-0.876441827123231</v>
+        <v>-0.8764418271232199</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-2.722628221167108</v>
+        <v>-2.88864085489619</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-1.73376569498446</v>
+        <v>-1.670524758181351</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-4.637442914877266</v>
+        <v>-4.593148181167868</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-0.6465729781685726</v>
+        <v>-0.6925702741390104</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>1.22268726909344</v>
+        <v>1.183175074588791</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-1.045504166644385</v>
+        <v>-0.872634597415859</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>-1.014184268480774</v>
+        <v>-1.13322185784184</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.3508442115570128</v>
+        <v>0.2934912833438634</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>-2.267265888717223</v>
+        <v>-2.278630119568907</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.8914713927310932</v>
+        <v>0.6843529292768097</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>1.760501743386155</v>
+        <v>1.834226969289812</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>-0.9154125275958658</v>
+        <v>-0.7473865882637319</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3.796622360358631</v>
+        <v>3.713749422863735</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>5.495842349595094</v>
+        <v>5.715907040501462</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>3.038011884262367</v>
+        <v>3.170232681927632</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>1.825778004775709</v>
+        <v>1.944754091686524</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>3.163975933567038</v>
+        <v>3.186013814407791</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>0.5377705363798596</v>
+        <v>0.5579760717311121</v>
       </c>
     </row>
     <row r="55">
@@ -2472,7 +2472,7 @@
         <v>0.04720619358437846</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.01355712647814225</v>
+        <v>0.01355712647814256</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.003824531868740072</v>
@@ -2481,7 +2481,7 @@
         <v>0.02180992284758447</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>-0.01128533658990609</v>
+        <v>-0.01128533658990595</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.03217433957670835</v>
+        <v>-0.03405780629033409</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.02048869902038074</v>
+        <v>-0.01970963954673813</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.05444758878983141</v>
+        <v>-0.05398176577702857</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.008731298046396115</v>
+        <v>-0.009258691063472737</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>0.01712986973295655</v>
+        <v>0.01659101311388186</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.01443440703581864</v>
+        <v>-0.01193730427161439</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>-0.01299104741514439</v>
+        <v>-0.01447724071076319</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.004508021105585153</v>
+        <v>0.0037850034955283</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>-0.02893763572204559</v>
+        <v>-0.0292171855988454</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.01072051568589563</v>
+        <v>0.008146553613739997</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.02120625860225636</v>
+        <v>0.0222000965195623</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>-0.0110138777435257</v>
+        <v>-0.008979185892102851</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.05403437814755536</v>
+        <v>0.05314669607814954</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.07832544239584843</v>
+        <v>0.08170366761636216</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.04343368394140012</v>
+        <v>0.04531203727852026</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.02364839691484991</v>
+        <v>0.02536413870646092</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.04111454756863969</v>
+        <v>0.04142593589533126</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.006973243637475541</v>
+        <v>0.007280404770885363</v>
       </c>
     </row>
     <row r="58">
